--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -46,24 +46,21 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -76,157 +73,160 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -659,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3023255813953488</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +709,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -761,13 +761,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +813,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8560371517027864</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +839,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.8409090909090909</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.8051948051948052</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,13 +891,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +917,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.7445887445887446</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -969,13 +969,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.676056338028169</v>
+        <v>0.671875</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,13 +995,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6571428571428571</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1021,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6524879614767255</v>
+        <v>0.6460674157303371</v>
       </c>
       <c r="L16">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="M16">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1047,13 +1047,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6457142857142857</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5964912280701754</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1125,13 +1125,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5918367346938775</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,13 +1151,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1177,13 +1177,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1203,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5542168674698795</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,13 +1229,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5238095238095238</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,7 +1255,7 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.515625</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L25">
         <v>33</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,13 +1281,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5128205128205128</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1307,13 +1307,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5081967213114754</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1359,13 +1359,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4923076923076923</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1385,13 +1385,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.481203007518797</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L30">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1411,13 +1411,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1437,13 +1437,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4670658682634731</v>
+        <v>0.43</v>
       </c>
       <c r="L32">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1463,13 +1463,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4519230769230769</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1489,13 +1489,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4197530864197531</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1515,13 +1515,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4096385542168675</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L35">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="M35">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>98</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1541,13 +1541,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.4078947368421053</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1567,13 +1567,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3553921568627451</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L37">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>263</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1593,13 +1593,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3540856031128405</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1619,13 +1619,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3465346534653465</v>
+        <v>0.3268482490272374</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1671,13 +1671,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.302158273381295</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>97</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1697,13 +1697,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3007518796992481</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1723,13 +1723,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2945205479452055</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L43">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>515</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1749,13 +1749,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2882882882882883</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1775,13 +1775,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2540365984930033</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L45">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="M45">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>693</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1801,13 +1801,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2488038277511962</v>
+        <v>0.2421959095801938</v>
       </c>
       <c r="L46">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="M46">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>157</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1827,13 +1827,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2348993288590604</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1853,13 +1853,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.219435736677116</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L48">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1879,13 +1879,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2119205298013245</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1905,7 +1905,7 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.2026490066225166</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L50">
         <v>153</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1931,13 +1931,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1918158567774936</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L51">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>632</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1957,13 +1957,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1443298969072165</v>
+        <v>0.1880794701986755</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>249</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1983,13 +1983,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1411192214111922</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>353</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2009,25 +2009,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.134453781512605</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>206</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2035,25 +2035,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1297297297297297</v>
+        <v>0.1336515513126492</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M55">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2061,13 +2061,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1217712177121771</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2087,13 +2087,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1181818181818182</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L57">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>388</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2113,13 +2113,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1148148148148148</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>239</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2139,13 +2139,13 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.1145584725536993</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L59">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>371</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2191,25 +2191,25 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.07317073170731707</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L61">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M61">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>646</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2217,25 +2217,25 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.07182835820895522</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L62">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M62">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>995</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2243,13 +2243,13 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.05535055350553506</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>512</v>
+        <v>992</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2269,25 +2269,25 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.04430929626411816</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="L64">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N64">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1100</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
